--- a/LEDCON.BOM.xlsx
+++ b/LEDCON.BOM.xlsx
@@ -11,12 +11,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="83">
   <si>
     <t>Product Name:</t>
   </si>
   <si>
-    <t>LED Controller</t>
+    <t>LED Controller (VER 1.1 REV B</t>
   </si>
   <si>
     <t>Tag:</t>
@@ -25,6 +25,9 @@
     <t>Product Number:</t>
   </si>
   <si>
+    <t>LEDCON</t>
+  </si>
+  <si>
     <t>Date:</t>
   </si>
   <si>
@@ -43,7 +46,7 @@
     <t>Drawing/Part No.</t>
   </si>
   <si>
-    <t>Tag</t>
+    <t>Version</t>
   </si>
   <si>
     <t>Date</t>
@@ -65,6 +68,9 @@
   </si>
   <si>
     <t>LEDCON.FACE</t>
+  </si>
+  <si>
+    <t>VER 1.0 REV A</t>
   </si>
   <si>
     <t>Mean Machine Inc.</t>
@@ -96,6 +102,9 @@
   </si>
   <si>
     <t>LEDCON.COREMID</t>
+  </si>
+  <si>
+    <t>VER 1.1 REV B</t>
   </si>
   <si>
     <t>Two Screw Core A</t>
@@ -490,7 +499,7 @@
     <col customWidth="1" min="3" max="3" width="31.14"/>
     <col customWidth="1" min="4" max="4" width="53.14"/>
     <col customWidth="1" min="5" max="5" width="30.43"/>
-    <col customWidth="1" min="6" max="6" width="15.0"/>
+    <col customWidth="1" min="6" max="6" width="18.57"/>
     <col customWidth="1" min="7" max="7" width="13.57"/>
     <col customWidth="1" min="8" max="8" width="38.86"/>
     <col customWidth="1" min="9" max="9" width="23.29"/>
@@ -532,10 +541,12 @@
       <c r="C2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G2" s="7">
         <v>42010.0</v>
@@ -559,7 +570,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G3" s="11">
         <v>42100.0</v>
@@ -578,32 +589,32 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="F4" s="2" t="s">
+        <v>11</v>
+      </c>
       <c r="G4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="K4" s="4"/>
       <c r="L4" s="5"/>
@@ -680,18 +691,20 @@
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" s="13"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="G8" s="13"/>
       <c r="H8" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I8" s="15"/>
       <c r="J8" s="9"/>
@@ -730,13 +743,13 @@
       </c>
       <c r="B10" s="15"/>
       <c r="C10" s="15" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F10" s="13"/>
       <c r="G10" s="13"/>
@@ -758,18 +771,20 @@
       </c>
       <c r="B11" s="17"/>
       <c r="C11" s="15" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="G11" s="13"/>
       <c r="H11" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I11" s="15"/>
       <c r="J11" s="19"/>
@@ -788,18 +803,20 @@
       </c>
       <c r="B12" s="17"/>
       <c r="C12" s="15" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="13"/>
+        <v>29</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G12" s="13"/>
       <c r="H12" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I12" s="15"/>
       <c r="J12" s="9"/>
@@ -818,18 +835,20 @@
       </c>
       <c r="B13" s="17"/>
       <c r="C13" s="15" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E13" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="13"/>
       <c r="G13" s="13"/>
       <c r="H13" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I13" s="13"/>
       <c r="J13" s="9"/>
@@ -848,18 +867,20 @@
       </c>
       <c r="B14" s="17"/>
       <c r="C14" s="15" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="13"/>
+        <v>36</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>30</v>
+      </c>
       <c r="G14" s="13"/>
       <c r="H14" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I14" s="13"/>
       <c r="J14" s="9"/>
@@ -878,18 +899,20 @@
       </c>
       <c r="B15" s="17"/>
       <c r="C15" s="15" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="13"/>
+        <v>39</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>19</v>
+      </c>
       <c r="G15" s="13"/>
       <c r="H15" s="15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="I15" s="13"/>
       <c r="J15" s="9"/>
@@ -908,18 +931,18 @@
       </c>
       <c r="B16" s="17"/>
       <c r="C16" s="15" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="F16" s="13"/>
       <c r="G16" s="13"/>
       <c r="H16" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I16" s="13"/>
       <c r="J16" s="9"/>
@@ -958,21 +981,21 @@
       </c>
       <c r="B18" s="15"/>
       <c r="C18" s="15" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F18" s="13"/>
       <c r="G18" s="13"/>
       <c r="H18" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="I18" s="21" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="J18" s="9"/>
       <c r="K18" s="9"/>
@@ -1010,21 +1033,21 @@
       </c>
       <c r="B20" s="15"/>
       <c r="C20" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="F20" s="13"/>
       <c r="G20" s="13"/>
       <c r="H20" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="I20" s="21" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
@@ -1062,21 +1085,21 @@
       </c>
       <c r="B22" s="15"/>
       <c r="C22" s="15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D22" s="22" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="E22" s="15" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="F22" s="13"/>
       <c r="G22" s="13"/>
       <c r="H22" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I22" s="21" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="J22" s="9"/>
       <c r="K22" s="9"/>
@@ -1114,21 +1137,21 @@
       </c>
       <c r="B24" s="15"/>
       <c r="C24" s="15" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D24" s="22" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E24" s="15" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F24" s="13"/>
       <c r="G24" s="13"/>
       <c r="H24" s="24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I24" s="21" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="J24" s="9"/>
       <c r="K24" s="9"/>
@@ -1165,22 +1188,22 @@
         <v>2.0</v>
       </c>
       <c r="B26" s="26" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C26" s="12"/>
       <c r="D26" s="22" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="E26" s="26" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="12"/>
       <c r="H26" s="24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I26" s="12" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
@@ -1218,18 +1241,18 @@
       </c>
       <c r="B28" s="26"/>
       <c r="C28" s="29" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D28" s="28" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E28" s="28" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
       <c r="H28" s="28" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="I28" s="24"/>
       <c r="J28" s="24"/>
@@ -1267,22 +1290,22 @@
         <v>2.0</v>
       </c>
       <c r="B30" s="26" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C30" s="12"/>
       <c r="D30" s="22" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E30" s="26" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="12"/>
       <c r="H30" s="24" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I30" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="J30" s="24"/>
       <c r="K30" s="12"/>
@@ -1320,21 +1343,21 @@
       </c>
       <c r="B32" s="15"/>
       <c r="C32" s="15" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D32" s="30" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="E32" s="15" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="F32" s="13"/>
       <c r="G32" s="13"/>
       <c r="H32" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I32" s="21" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J32" s="9"/>
       <c r="K32" s="9"/>
@@ -1372,21 +1395,21 @@
       </c>
       <c r="B34" s="15"/>
       <c r="C34" s="15" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D34" s="30" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="E34" s="30" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="13"/>
       <c r="H34" s="15" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="I34" s="21" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="J34" s="9"/>
       <c r="K34" s="9"/>
@@ -1624,7 +1647,7 @@
       <c r="C46" s="13"/>
       <c r="D46" s="13"/>
       <c r="E46" s="13" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F46" s="13"/>
       <c r="G46" s="13"/>

--- a/LEDCON.BOM.xlsx
+++ b/LEDCON.BOM.xlsx
@@ -70,33 +70,36 @@
     <t>LEDCON.FACE</t>
   </si>
   <si>
+    <t>VER 1.1 REV B</t>
+  </si>
+  <si>
+    <t>Mean Machine Inc.</t>
+  </si>
+  <si>
+    <t>Daughterboard PCB Assembly</t>
+  </si>
+  <si>
+    <t>Daughterboard PCB</t>
+  </si>
+  <si>
+    <t>LEDCON.PCB</t>
+  </si>
+  <si>
+    <t>LEDCON.PCB.v1.0</t>
+  </si>
+  <si>
+    <t>Zero Screw Core</t>
+  </si>
+  <si>
+    <t>Lasercut and/or Machined Delrin Part</t>
+  </si>
+  <si>
+    <t>LEDCON.CORETOP</t>
+  </si>
+  <si>
     <t>VER 1.0 REV A</t>
   </si>
   <si>
-    <t>Mean Machine Inc.</t>
-  </si>
-  <si>
-    <t>Daughterboard PCB Assembly</t>
-  </si>
-  <si>
-    <t>Daughterboard PCB</t>
-  </si>
-  <si>
-    <t>LEDCON.PCB</t>
-  </si>
-  <si>
-    <t>LEDCON.PCB.v1.0</t>
-  </si>
-  <si>
-    <t>Zero Screw Core</t>
-  </si>
-  <si>
-    <t>Lasercut and/or Machined Delrin Part</t>
-  </si>
-  <si>
-    <t>LEDCON.CORETOP</t>
-  </si>
-  <si>
     <t>Two Screw Core B</t>
   </si>
   <si>
@@ -104,9 +107,6 @@
   </si>
   <si>
     <t>LEDCON.COREMID</t>
-  </si>
-  <si>
-    <t>VER 1.1 REV B</t>
   </si>
   <si>
     <t>Two Screw Core A</t>
@@ -2140,7 +2140,7 @@
         <v>27</v>
       </c>
       <c r="E11" t="s" s="20">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F11" s="18"/>
       <c r="G11" t="s" s="20">
@@ -2159,16 +2159,16 @@
         <v>1</v>
       </c>
       <c r="B12" t="s" s="20">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C12" t="s" s="20">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D12" t="s" s="27">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E12" t="s" s="20">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F12" s="18"/>
       <c r="G12" t="s" s="20">
@@ -2196,7 +2196,7 @@
         <v>34</v>
       </c>
       <c r="E13" t="s" s="20">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F13" s="18"/>
       <c r="G13" t="s" s="20">
@@ -2224,7 +2224,7 @@
         <v>37</v>
       </c>
       <c r="E14" t="s" s="20">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F14" s="18"/>
       <c r="G14" t="s" s="20">

--- a/LEDCON.BOM.xlsx
+++ b/LEDCON.BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
   <si>
     <t>Product Name:</t>
   </si>
@@ -61,19 +61,7 @@
     <t>Notes</t>
   </si>
   <si>
-    <t>Top Coverplate</t>
-  </si>
-  <si>
-    <t>Machined Aluminum Part</t>
-  </si>
-  <si>
-    <t>LEDCON.FACE</t>
-  </si>
-  <si>
-    <t>VER 1.1 REV B</t>
-  </si>
-  <si>
-    <t>Mean Machine Inc.</t>
+    <t>LEDCON.MECH</t>
   </si>
   <si>
     <t>Daughterboard PCB Assembly</t>
@@ -88,65 +76,16 @@
     <t>LEDCON.PCB.v1.0</t>
   </si>
   <si>
-    <t>Zero Screw Core</t>
-  </si>
-  <si>
-    <t>Lasercut and/or Machined Delrin Part</t>
-  </si>
-  <si>
-    <t>LEDCON.CORETOP</t>
-  </si>
-  <si>
-    <t>VER 1.0 REV A</t>
-  </si>
-  <si>
-    <t>Two Screw Core B</t>
-  </si>
-  <si>
-    <t>Delrin Shell Part, Top</t>
-  </si>
-  <si>
-    <t>LEDCON.COREMID</t>
-  </si>
-  <si>
-    <t>Two Screw Core A</t>
-  </si>
-  <si>
-    <t>Delrin Shell Part, Bottom</t>
-  </si>
-  <si>
-    <t>LEDCON.COREBOT</t>
-  </si>
-  <si>
-    <t>Two Screw Core  C</t>
-  </si>
-  <si>
-    <t>Delrin Shell Part, Side</t>
-  </si>
-  <si>
-    <t>LEDCON.CORESIDE</t>
-  </si>
-  <si>
-    <t>Bottom Coverplate</t>
-  </si>
-  <si>
-    <t>Lasercut 5052 1/16" Aluminum Sheet</t>
-  </si>
-  <si>
-    <t>LEDCON.BACK</t>
-  </si>
-  <si>
-    <t>PEM Cold-Pressed Stud</t>
-  </si>
-  <si>
-    <t>Threaded Press Stud
-18-8 SS, 6-32 thread, 0.5" long</t>
-  </si>
-  <si>
-    <t>93580A220</t>
-  </si>
-  <si>
-    <t>McMaster-Carr</t>
+    <t>KW2 PCB Assembly</t>
+  </si>
+  <si>
+    <t>KW2CPU (Brain) PCB</t>
+  </si>
+  <si>
+    <t>KW2CPU.PCB</t>
+  </si>
+  <si>
+    <t>KW2CPU.PCB.v1.2</t>
   </si>
   <si>
     <t>Header Access Plug</t>
@@ -204,6 +143,9 @@
     <t>93600A082</t>
   </si>
   <si>
+    <t>McMaster-Carr</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <u val="single"/>
@@ -247,7 +189,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="12"/>
+        <color indexed="11"/>
         <rFont val="Arial"/>
       </rPr>
       <t>http://www.mcmaster.com/#93135a275/=vrk0cr</t>
@@ -278,7 +220,7 @@
     <r>
       <rPr>
         <sz val="12"/>
-        <color indexed="12"/>
+        <color indexed="11"/>
         <rFont val="Arial"/>
       </rPr>
       <t>http://www.mcmaster.com/#94812a200/=vrk1cp</t>
@@ -394,12 +336,17 @@
       <name val="Arial"/>
     </font>
     <font>
+      <u val="single"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color indexed="11"/>
       <name val="Arial"/>
     </font>
     <font>
-      <u val="single"/>
       <sz val="12"/>
       <color indexed="12"/>
       <name val="Arial"/>
@@ -407,12 +354,7 @@
     <font>
       <u val="single"/>
       <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="12"/>
+      <color indexed="11"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -539,7 +481,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -603,6 +545,9 @@
     <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
@@ -615,26 +560,26 @@
     <xf numFmtId="1" fontId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="8" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="10" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -655,8 +600,8 @@
       <rgbColor rgb="ff000000"/>
       <rgbColor rgb="ffd9d9d9"/>
       <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="ff0000ff"/>
       <rgbColor rgb="ff333333"/>
-      <rgbColor rgb="ff0000ff"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -1885,7 +1830,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:N41"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -2041,13 +1986,17 @@
       <c r="N6" s="19"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
+      <c r="A7" s="18">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s" s="20">
+        <v>16</v>
+      </c>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
+      <c r="G7" s="21"/>
       <c r="H7" s="18"/>
       <c r="I7" s="19"/>
       <c r="J7" s="19"/>
@@ -2056,26 +2005,14 @@
       <c r="M7" s="19"/>
       <c r="N7" s="19"/>
     </row>
-    <row r="8" ht="15.75" customHeight="1">
-      <c r="A8" s="18">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="20">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="E8" t="s" s="20">
-        <v>19</v>
-      </c>
+    <row r="8" ht="19" customHeight="1">
+      <c r="A8" s="18"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18"/>
       <c r="F8" s="18"/>
-      <c r="G8" t="s" s="20">
-        <v>20</v>
-      </c>
+      <c r="G8" s="18"/>
       <c r="H8" s="18"/>
       <c r="I8" s="19"/>
       <c r="J8" s="19"/>
@@ -2084,125 +2021,111 @@
       <c r="M8" s="19"/>
       <c r="N8" s="19"/>
     </row>
-    <row r="9" ht="21.75" customHeight="1">
-      <c r="A9" s="18"/>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18"/>
+    <row r="9" ht="20" customHeight="1">
+      <c r="A9" s="18">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s" s="20">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s" s="20">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s" s="22">
+        <v>19</v>
+      </c>
+      <c r="E9" t="s" s="20">
+        <v>20</v>
+      </c>
+      <c r="F9" s="23"/>
       <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="19"/>
-      <c r="N9" s="19"/>
-    </row>
-    <row r="10" ht="52.5" customHeight="1">
-      <c r="A10" s="18">
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="25"/>
+    </row>
+    <row r="10" ht="20" customHeight="1">
+      <c r="A10" s="23"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="25"/>
+    </row>
+    <row r="11" ht="30" customHeight="1">
+      <c r="A11" s="23">
         <v>1</v>
       </c>
-      <c r="B10" t="s" s="20">
+      <c r="B11" t="s" s="22">
         <v>21</v>
       </c>
-      <c r="C10" t="s" s="20">
+      <c r="C11" t="s" s="22">
         <v>22</v>
       </c>
-      <c r="D10" t="s" s="21">
+      <c r="D11" t="s" s="22">
         <v>23</v>
       </c>
-      <c r="E10" t="s" s="20">
+      <c r="E11" t="s" s="20">
         <v>24</v>
       </c>
-      <c r="F10" s="22"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="24"/>
-      <c r="N10" s="24"/>
-    </row>
-    <row r="11" ht="30.75" customHeight="1">
-      <c r="A11" s="18">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="C11" t="s" s="20">
-        <v>26</v>
-      </c>
-      <c r="D11" t="s" s="25">
-        <v>27</v>
-      </c>
-      <c r="E11" t="s" s="20">
-        <v>28</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" t="s" s="20">
-        <v>20</v>
-      </c>
-      <c r="H11" s="18"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="19"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="19"/>
-      <c r="N11" s="19"/>
-    </row>
-    <row r="12" ht="15.75" customHeight="1">
-      <c r="A12" s="18">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="20">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="D12" t="s" s="27">
-        <v>31</v>
-      </c>
-      <c r="E12" t="s" s="20">
-        <v>19</v>
-      </c>
-      <c r="F12" s="18"/>
-      <c r="G12" t="s" s="20">
-        <v>20</v>
-      </c>
-      <c r="H12" s="18"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="19"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="19"/>
-      <c r="N12" s="19"/>
-    </row>
-    <row r="13" ht="19.5" customHeight="1">
+      <c r="F11" s="23"/>
+      <c r="G11" s="23"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="25"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="25"/>
+      <c r="N11" s="25"/>
+    </row>
+    <row r="12" ht="20" customHeight="1">
+      <c r="A12" s="23"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="25"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="25"/>
+      <c r="N12" s="25"/>
+    </row>
+    <row r="13" ht="30" customHeight="1">
       <c r="A13" s="18">
         <v>1</v>
       </c>
       <c r="B13" t="s" s="20">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s" s="20">
-        <v>33</v>
-      </c>
-      <c r="D13" t="s" s="27">
-        <v>34</v>
-      </c>
-      <c r="E13" t="s" s="20">
-        <v>19</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="D13" t="s" s="20">
+        <v>27</v>
+      </c>
+      <c r="E13" s="18"/>
       <c r="F13" s="18"/>
       <c r="G13" t="s" s="20">
-        <v>20</v>
-      </c>
-      <c r="H13" s="18"/>
+        <v>28</v>
+      </c>
+      <c r="H13" t="s" s="27">
+        <v>29</v>
+      </c>
       <c r="I13" s="19"/>
       <c r="J13" s="19"/>
       <c r="K13" s="19"/>
@@ -2210,26 +2133,14 @@
       <c r="M13" s="19"/>
       <c r="N13" s="19"/>
     </row>
-    <row r="14" ht="19.5" customHeight="1">
-      <c r="A14" s="18">
-        <v>2</v>
-      </c>
-      <c r="B14" t="s" s="20">
-        <v>35</v>
-      </c>
-      <c r="C14" t="s" s="20">
-        <v>36</v>
-      </c>
-      <c r="D14" t="s" s="27">
-        <v>37</v>
-      </c>
-      <c r="E14" t="s" s="20">
-        <v>19</v>
-      </c>
+    <row r="14" ht="30" customHeight="1">
+      <c r="A14" s="18"/>
+      <c r="B14" s="18"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" t="s" s="20">
-        <v>20</v>
-      </c>
+      <c r="G14" s="18"/>
       <c r="H14" s="18"/>
       <c r="I14" s="19"/>
       <c r="J14" s="19"/>
@@ -2238,27 +2149,27 @@
       <c r="M14" s="19"/>
       <c r="N14" s="19"/>
     </row>
-    <row r="15" ht="21" customHeight="1">
+    <row r="15" ht="30" customHeight="1">
       <c r="A15" s="18">
         <v>1</v>
       </c>
       <c r="B15" t="s" s="20">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C15" t="s" s="20">
-        <v>39</v>
-      </c>
-      <c r="D15" t="s" s="27">
-        <v>40</v>
-      </c>
-      <c r="E15" t="s" s="20">
-        <v>19</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="D15" t="s" s="20">
+        <v>32</v>
+      </c>
+      <c r="E15" s="18"/>
       <c r="F15" s="18"/>
       <c r="G15" t="s" s="20">
-        <v>20</v>
-      </c>
-      <c r="H15" s="18"/>
+        <v>33</v>
+      </c>
+      <c r="H15" t="s" s="27">
+        <v>34</v>
+      </c>
       <c r="I15" s="19"/>
       <c r="J15" s="19"/>
       <c r="K15" s="19"/>
@@ -2267,23 +2178,13 @@
       <c r="N15" s="19"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="18">
-        <v>2</v>
-      </c>
-      <c r="B16" t="s" s="20">
-        <v>41</v>
-      </c>
-      <c r="C16" t="s" s="20">
-        <v>42</v>
-      </c>
-      <c r="D16" t="s" s="27">
-        <v>43</v>
-      </c>
+      <c r="A16" s="18"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
       <c r="E16" s="18"/>
       <c r="F16" s="18"/>
-      <c r="G16" t="s" s="20">
-        <v>44</v>
-      </c>
+      <c r="G16" s="18"/>
       <c r="H16" s="18"/>
       <c r="I16" s="19"/>
       <c r="J16" s="19"/>
@@ -2293,14 +2194,26 @@
       <c r="N16" s="19"/>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="18"/>
-      <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
-      <c r="D17" s="19"/>
+      <c r="A17" s="18">
+        <v>2</v>
+      </c>
+      <c r="B17" t="s" s="28">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s" s="28">
+        <v>36</v>
+      </c>
+      <c r="D17" t="s" s="20">
+        <v>37</v>
+      </c>
       <c r="E17" s="18"/>
       <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="18"/>
+      <c r="G17" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="H17" t="s" s="27">
+        <v>39</v>
+      </c>
       <c r="I17" s="19"/>
       <c r="J17" s="19"/>
       <c r="K17" s="19"/>
@@ -2309,26 +2222,14 @@
       <c r="N17" s="19"/>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="18">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s" s="20">
-        <v>45</v>
-      </c>
-      <c r="C18" t="s" s="20">
-        <v>46</v>
-      </c>
-      <c r="D18" t="s" s="20">
-        <v>47</v>
-      </c>
+      <c r="A18" s="18"/>
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
       <c r="E18" s="18"/>
       <c r="F18" s="18"/>
-      <c r="G18" t="s" s="20">
-        <v>48</v>
-      </c>
-      <c r="H18" t="s" s="28">
-        <v>49</v>
-      </c>
+      <c r="G18" s="18"/>
+      <c r="H18" s="18"/>
       <c r="I18" s="19"/>
       <c r="J18" s="19"/>
       <c r="K18" s="19"/>
@@ -2337,14 +2238,26 @@
       <c r="N18" s="19"/>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="18"/>
-      <c r="B19" s="18"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="18"/>
+      <c r="A19" s="18">
+        <v>4</v>
+      </c>
+      <c r="B19" t="s" s="28">
+        <v>40</v>
+      </c>
+      <c r="C19" t="s" s="20">
+        <v>41</v>
+      </c>
+      <c r="D19" t="s" s="20">
+        <v>42</v>
+      </c>
       <c r="E19" s="18"/>
       <c r="F19" s="18"/>
-      <c r="G19" s="18"/>
-      <c r="H19" s="18"/>
+      <c r="G19" t="s" s="28">
+        <v>38</v>
+      </c>
+      <c r="H19" t="s" s="27">
+        <v>43</v>
+      </c>
       <c r="I19" s="19"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
@@ -2352,27 +2265,15 @@
       <c r="M19" s="19"/>
       <c r="N19" s="19"/>
     </row>
-    <row r="20" ht="30" customHeight="1">
-      <c r="A20" s="18">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s" s="20">
-        <v>50</v>
-      </c>
-      <c r="C20" t="s" s="20">
-        <v>51</v>
-      </c>
-      <c r="D20" t="s" s="20">
-        <v>52</v>
-      </c>
+    <row r="20" ht="27" customHeight="1">
+      <c r="A20" s="18"/>
+      <c r="B20" s="19"/>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
       <c r="E20" s="18"/>
       <c r="F20" s="18"/>
-      <c r="G20" t="s" s="20">
-        <v>53</v>
-      </c>
-      <c r="H20" t="s" s="28">
-        <v>54</v>
-      </c>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
       <c r="I20" s="19"/>
       <c r="J20" s="19"/>
       <c r="K20" s="19"/>
@@ -2380,15 +2281,27 @@
       <c r="M20" s="19"/>
       <c r="N20" s="19"/>
     </row>
-    <row r="21" ht="30" customHeight="1">
-      <c r="A21" s="18"/>
-      <c r="B21" s="19"/>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="18"/>
-      <c r="F21" s="18"/>
-      <c r="G21" s="18"/>
-      <c r="H21" s="18"/>
+    <row r="21" ht="27" customHeight="1">
+      <c r="A21" s="29">
+        <v>2</v>
+      </c>
+      <c r="B21" t="s" s="28">
+        <v>44</v>
+      </c>
+      <c r="C21" t="s" s="28">
+        <v>45</v>
+      </c>
+      <c r="D21" t="s" s="28">
+        <v>46</v>
+      </c>
+      <c r="E21" s="19"/>
+      <c r="F21" s="19"/>
+      <c r="G21" t="s" s="28">
+        <v>38</v>
+      </c>
+      <c r="H21" t="s" s="30">
+        <v>47</v>
+      </c>
       <c r="I21" s="19"/>
       <c r="J21" s="19"/>
       <c r="K21" s="19"/>
@@ -2396,27 +2309,15 @@
       <c r="M21" s="19"/>
       <c r="N21" s="19"/>
     </row>
-    <row r="22" ht="30" customHeight="1">
-      <c r="A22" s="18">
-        <v>2</v>
-      </c>
-      <c r="B22" t="s" s="27">
-        <v>55</v>
-      </c>
-      <c r="C22" t="s" s="27">
-        <v>56</v>
-      </c>
-      <c r="D22" t="s" s="20">
-        <v>57</v>
-      </c>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" t="s" s="20">
-        <v>44</v>
-      </c>
-      <c r="H22" t="s" s="28">
-        <v>58</v>
-      </c>
+    <row r="22" ht="27" customHeight="1">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="19"/>
+      <c r="E22" s="19"/>
+      <c r="F22" s="19"/>
+      <c r="G22" s="19"/>
+      <c r="H22" s="19"/>
       <c r="I22" s="19"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
@@ -2424,15 +2325,25 @@
       <c r="M22" s="19"/>
       <c r="N22" s="19"/>
     </row>
-    <row r="23" ht="30" customHeight="1">
-      <c r="A23" s="18"/>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
+    <row r="23" ht="27" customHeight="1">
+      <c r="A23" s="19">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s" s="28">
+        <v>48</v>
+      </c>
+      <c r="C23" t="s" s="28">
+        <v>49</v>
+      </c>
+      <c r="D23" t="s" s="28">
+        <v>50</v>
+      </c>
+      <c r="E23" s="19"/>
+      <c r="F23" s="19"/>
+      <c r="G23" t="s" s="28">
+        <v>51</v>
+      </c>
+      <c r="H23" s="19"/>
       <c r="I23" s="19"/>
       <c r="J23" s="19"/>
       <c r="K23" s="19"/>
@@ -2440,27 +2351,15 @@
       <c r="M23" s="19"/>
       <c r="N23" s="19"/>
     </row>
-    <row r="24" ht="30" customHeight="1">
-      <c r="A24" s="18">
-        <v>4</v>
-      </c>
-      <c r="B24" t="s" s="27">
-        <v>59</v>
-      </c>
-      <c r="C24" t="s" s="20">
-        <v>60</v>
-      </c>
-      <c r="D24" t="s" s="20">
-        <v>61</v>
-      </c>
-      <c r="E24" s="18"/>
-      <c r="F24" s="18"/>
-      <c r="G24" t="s" s="27">
-        <v>44</v>
-      </c>
-      <c r="H24" t="s" s="28">
-        <v>62</v>
-      </c>
+    <row r="24" ht="27" customHeight="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="19"/>
+      <c r="E24" s="19"/>
+      <c r="F24" s="19"/>
+      <c r="G24" s="19"/>
+      <c r="H24" s="19"/>
       <c r="I24" s="19"/>
       <c r="J24" s="19"/>
       <c r="K24" s="19"/>
@@ -2469,14 +2368,26 @@
       <c r="N24" s="19"/>
     </row>
     <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="18"/>
-      <c r="B25" s="19"/>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-      <c r="G25" s="18"/>
-      <c r="H25" s="18"/>
+      <c r="A25" s="29">
+        <v>2</v>
+      </c>
+      <c r="B25" t="s" s="28">
+        <v>52</v>
+      </c>
+      <c r="C25" t="s" s="28">
+        <v>53</v>
+      </c>
+      <c r="D25" t="s" s="28">
+        <v>54</v>
+      </c>
+      <c r="E25" s="19"/>
+      <c r="F25" s="19"/>
+      <c r="G25" t="s" s="28">
+        <v>38</v>
+      </c>
+      <c r="H25" t="s" s="30">
+        <v>55</v>
+      </c>
       <c r="I25" s="19"/>
       <c r="J25" s="19"/>
       <c r="K25" s="19"/>
@@ -2485,26 +2396,14 @@
       <c r="N25" s="19"/>
     </row>
     <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="29">
-        <v>2</v>
-      </c>
-      <c r="B26" t="s" s="27">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s" s="27">
-        <v>64</v>
-      </c>
-      <c r="D26" t="s" s="27">
-        <v>65</v>
-      </c>
-      <c r="E26" s="19"/>
-      <c r="F26" s="19"/>
-      <c r="G26" t="s" s="27">
-        <v>44</v>
-      </c>
-      <c r="H26" t="s" s="30">
-        <v>66</v>
-      </c>
+      <c r="A26" s="18"/>
+      <c r="B26" s="19"/>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="18"/>
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
       <c r="I26" s="19"/>
       <c r="J26" s="19"/>
       <c r="K26" s="19"/>
@@ -2512,15 +2411,27 @@
       <c r="M26" s="19"/>
       <c r="N26" s="19"/>
     </row>
-    <row r="27" ht="27" customHeight="1">
-      <c r="A27" s="19"/>
-      <c r="B27" s="19"/>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
+    <row r="27" ht="41.4" customHeight="1">
+      <c r="A27" s="18">
+        <v>2</v>
+      </c>
+      <c r="B27" t="s" s="20">
+        <v>56</v>
+      </c>
+      <c r="C27" t="s" s="28">
+        <v>57</v>
+      </c>
+      <c r="D27" t="s" s="20">
+        <v>58</v>
+      </c>
+      <c r="E27" s="18"/>
+      <c r="F27" s="18"/>
+      <c r="G27" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="H27" t="s" s="27">
+        <v>59</v>
+      </c>
       <c r="I27" s="19"/>
       <c r="J27" s="19"/>
       <c r="K27" s="19"/>
@@ -2529,24 +2440,14 @@
       <c r="N27" s="19"/>
     </row>
     <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="19">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s" s="27">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s" s="27">
-        <v>68</v>
-      </c>
-      <c r="D28" t="s" s="27">
-        <v>69</v>
-      </c>
-      <c r="E28" s="19"/>
-      <c r="F28" s="19"/>
-      <c r="G28" t="s" s="27">
-        <v>70</v>
-      </c>
-      <c r="H28" s="19"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
       <c r="I28" s="19"/>
       <c r="J28" s="19"/>
       <c r="K28" s="19"/>
@@ -2554,15 +2455,27 @@
       <c r="M28" s="19"/>
       <c r="N28" s="19"/>
     </row>
-    <row r="29" ht="27" customHeight="1">
-      <c r="A29" s="19"/>
-      <c r="B29" s="19"/>
-      <c r="C29" s="19"/>
-      <c r="D29" s="19"/>
-      <c r="E29" s="19"/>
-      <c r="F29" s="19"/>
-      <c r="G29" s="19"/>
-      <c r="H29" s="19"/>
+    <row r="29" ht="48.6" customHeight="1">
+      <c r="A29" s="18">
+        <v>2</v>
+      </c>
+      <c r="B29" t="s" s="20">
+        <v>60</v>
+      </c>
+      <c r="C29" t="s" s="28">
+        <v>61</v>
+      </c>
+      <c r="D29" t="s" s="28">
+        <v>62</v>
+      </c>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" t="s" s="20">
+        <v>38</v>
+      </c>
+      <c r="H29" t="s" s="27">
+        <v>63</v>
+      </c>
       <c r="I29" s="19"/>
       <c r="J29" s="19"/>
       <c r="K29" s="19"/>
@@ -2571,26 +2484,14 @@
       <c r="N29" s="19"/>
     </row>
     <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="29">
-        <v>2</v>
-      </c>
-      <c r="B30" t="s" s="27">
-        <v>71</v>
-      </c>
-      <c r="C30" t="s" s="27">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s" s="27">
-        <v>73</v>
-      </c>
-      <c r="E30" s="19"/>
-      <c r="F30" s="19"/>
-      <c r="G30" t="s" s="27">
-        <v>44</v>
-      </c>
-      <c r="H30" t="s" s="30">
-        <v>74</v>
-      </c>
+      <c r="A30" s="18"/>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="18"/>
+      <c r="F30" s="18"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
       <c r="I30" s="19"/>
       <c r="J30" s="19"/>
       <c r="K30" s="19"/>
@@ -2599,14 +2500,26 @@
       <c r="N30" s="19"/>
     </row>
     <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="18"/>
-      <c r="B31" s="19"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="18"/>
+      <c r="A31" s="18">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s" s="28">
+        <v>64</v>
+      </c>
+      <c r="C31" t="s" s="28">
+        <v>65</v>
+      </c>
+      <c r="D31" t="s" s="20">
+        <v>66</v>
+      </c>
       <c r="E31" s="18"/>
       <c r="F31" s="18"/>
-      <c r="G31" s="18"/>
-      <c r="H31" s="18"/>
+      <c r="G31" t="s" s="20">
+        <v>67</v>
+      </c>
+      <c r="H31" t="s" s="20">
+        <v>68</v>
+      </c>
       <c r="I31" s="19"/>
       <c r="J31" s="19"/>
       <c r="K31" s="19"/>
@@ -2614,27 +2527,15 @@
       <c r="M31" s="19"/>
       <c r="N31" s="19"/>
     </row>
-    <row r="32" ht="41.4" customHeight="1">
-      <c r="A32" s="18">
-        <v>2</v>
-      </c>
-      <c r="B32" t="s" s="20">
-        <v>75</v>
-      </c>
-      <c r="C32" t="s" s="27">
-        <v>76</v>
-      </c>
-      <c r="D32" t="s" s="20">
-        <v>77</v>
-      </c>
+    <row r="32" ht="27" customHeight="1">
+      <c r="A32" s="18"/>
+      <c r="B32" s="18"/>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
       <c r="E32" s="18"/>
       <c r="F32" s="18"/>
-      <c r="G32" t="s" s="20">
-        <v>44</v>
-      </c>
-      <c r="H32" t="s" s="28">
-        <v>78</v>
-      </c>
+      <c r="G32" s="18"/>
+      <c r="H32" s="18"/>
       <c r="I32" s="19"/>
       <c r="J32" s="19"/>
       <c r="K32" s="19"/>
@@ -2644,8 +2545,8 @@
     </row>
     <row r="33" ht="27" customHeight="1">
       <c r="A33" s="18"/>
-      <c r="B33" s="19"/>
-      <c r="C33" s="19"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="18"/>
       <c r="D33" s="18"/>
       <c r="E33" s="18"/>
       <c r="F33" s="18"/>
@@ -2658,27 +2559,15 @@
       <c r="M33" s="19"/>
       <c r="N33" s="19"/>
     </row>
-    <row r="34" ht="48.6" customHeight="1">
-      <c r="A34" s="18">
-        <v>2</v>
-      </c>
-      <c r="B34" t="s" s="20">
-        <v>79</v>
-      </c>
-      <c r="C34" t="s" s="27">
-        <v>80</v>
-      </c>
-      <c r="D34" t="s" s="27">
-        <v>81</v>
-      </c>
+    <row r="34" ht="30" customHeight="1">
+      <c r="A34" s="18"/>
+      <c r="B34" s="18"/>
+      <c r="C34" s="18"/>
+      <c r="D34" s="18"/>
       <c r="E34" s="18"/>
       <c r="F34" s="18"/>
-      <c r="G34" t="s" s="20">
-        <v>44</v>
-      </c>
-      <c r="H34" t="s" s="28">
-        <v>82</v>
-      </c>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
       <c r="I34" s="19"/>
       <c r="J34" s="19"/>
       <c r="K34" s="19"/>
@@ -2686,10 +2575,10 @@
       <c r="M34" s="19"/>
       <c r="N34" s="19"/>
     </row>
-    <row r="35" ht="27" customHeight="1">
+    <row r="35" ht="30" customHeight="1">
       <c r="A35" s="18"/>
-      <c r="B35" s="19"/>
-      <c r="C35" s="19"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="18"/>
       <c r="D35" s="18"/>
       <c r="E35" s="18"/>
       <c r="F35" s="18"/>
@@ -2702,60 +2591,48 @@
       <c r="M35" s="19"/>
       <c r="N35" s="19"/>
     </row>
-    <row r="36" ht="27" customHeight="1">
-      <c r="A36" s="18">
-        <v>1</v>
-      </c>
-      <c r="B36" t="s" s="27">
-        <v>83</v>
-      </c>
-      <c r="C36" t="s" s="27">
-        <v>84</v>
-      </c>
-      <c r="D36" t="s" s="20">
-        <v>85</v>
-      </c>
+    <row r="36" ht="45" customHeight="1">
+      <c r="A36" s="18"/>
+      <c r="B36" s="18"/>
+      <c r="C36" s="18"/>
+      <c r="D36" s="31"/>
       <c r="E36" s="18"/>
       <c r="F36" s="18"/>
-      <c r="G36" t="s" s="20">
-        <v>86</v>
-      </c>
-      <c r="H36" t="s" s="20">
-        <v>87</v>
-      </c>
-      <c r="I36" s="19"/>
+      <c r="G36" s="18"/>
+      <c r="H36" s="18"/>
+      <c r="I36" s="32"/>
       <c r="J36" s="19"/>
       <c r="K36" s="19"/>
       <c r="L36" s="19"/>
       <c r="M36" s="19"/>
       <c r="N36" s="19"/>
     </row>
-    <row r="37" ht="27" customHeight="1">
+    <row r="37" ht="45" customHeight="1">
       <c r="A37" s="18"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
+      <c r="D37" s="31"/>
       <c r="E37" s="18"/>
       <c r="F37" s="18"/>
       <c r="G37" s="18"/>
       <c r="H37" s="18"/>
-      <c r="I37" s="19"/>
+      <c r="I37" s="32"/>
       <c r="J37" s="19"/>
       <c r="K37" s="19"/>
       <c r="L37" s="19"/>
       <c r="M37" s="19"/>
       <c r="N37" s="19"/>
     </row>
-    <row r="38" ht="27" customHeight="1">
+    <row r="38" ht="45" customHeight="1">
       <c r="A38" s="18"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="31"/>
       <c r="E38" s="18"/>
       <c r="F38" s="18"/>
       <c r="G38" s="18"/>
       <c r="H38" s="18"/>
-      <c r="I38" s="19"/>
+      <c r="I38" s="32"/>
       <c r="J38" s="19"/>
       <c r="K38" s="19"/>
       <c r="L38" s="19"/>
@@ -2766,20 +2643,20 @@
       <c r="A39" s="18"/>
       <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
+      <c r="D39" s="31"/>
       <c r="E39" s="18"/>
       <c r="F39" s="18"/>
       <c r="G39" s="18"/>
       <c r="H39" s="18"/>
-      <c r="I39" s="19"/>
+      <c r="I39" s="32"/>
       <c r="J39" s="19"/>
       <c r="K39" s="19"/>
       <c r="L39" s="19"/>
       <c r="M39" s="19"/>
       <c r="N39" s="19"/>
     </row>
-    <row r="40" ht="30" customHeight="1">
-      <c r="A40" s="18"/>
+    <row r="40" ht="15.75" customHeight="1">
+      <c r="A40" s="19"/>
       <c r="B40" s="18"/>
       <c r="C40" s="18"/>
       <c r="D40" s="18"/>
@@ -2787,122 +2664,42 @@
       <c r="F40" s="18"/>
       <c r="G40" s="18"/>
       <c r="H40" s="18"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
+      <c r="I40" s="18"/>
+      <c r="J40" s="18"/>
       <c r="K40" s="19"/>
       <c r="L40" s="19"/>
       <c r="M40" s="19"/>
       <c r="N40" s="19"/>
     </row>
-    <row r="41" ht="45" customHeight="1">
-      <c r="A41" s="18"/>
+    <row r="41" ht="15.75" customHeight="1">
+      <c r="A41" s="19"/>
       <c r="B41" s="18"/>
       <c r="C41" s="18"/>
-      <c r="D41" s="31"/>
+      <c r="D41" t="s" s="20">
+        <v>69</v>
+      </c>
       <c r="E41" s="18"/>
       <c r="F41" s="18"/>
       <c r="G41" s="18"/>
       <c r="H41" s="18"/>
-      <c r="I41" s="26"/>
-      <c r="J41" s="19"/>
+      <c r="I41" s="18"/>
+      <c r="J41" s="18"/>
       <c r="K41" s="19"/>
       <c r="L41" s="19"/>
       <c r="M41" s="19"/>
       <c r="N41" s="19"/>
     </row>
-    <row r="42" ht="45" customHeight="1">
-      <c r="A42" s="18"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="18"/>
-      <c r="D42" s="31"/>
-      <c r="E42" s="18"/>
-      <c r="F42" s="18"/>
-      <c r="G42" s="18"/>
-      <c r="H42" s="18"/>
-      <c r="I42" s="26"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-    </row>
-    <row r="43" ht="45" customHeight="1">
-      <c r="A43" s="18"/>
-      <c r="B43" s="18"/>
-      <c r="C43" s="18"/>
-      <c r="D43" s="31"/>
-      <c r="E43" s="18"/>
-      <c r="F43" s="18"/>
-      <c r="G43" s="18"/>
-      <c r="H43" s="18"/>
-      <c r="I43" s="26"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
-    </row>
-    <row r="44" ht="30" customHeight="1">
-      <c r="A44" s="18"/>
-      <c r="B44" s="18"/>
-      <c r="C44" s="18"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="18"/>
-      <c r="F44" s="18"/>
-      <c r="G44" s="18"/>
-      <c r="H44" s="18"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-    </row>
-    <row r="45" ht="15.75" customHeight="1">
-      <c r="A45" s="19"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="18"/>
-      <c r="D45" s="18"/>
-      <c r="E45" s="18"/>
-      <c r="F45" s="18"/>
-      <c r="G45" s="18"/>
-      <c r="H45" s="18"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="19"/>
-      <c r="M45" s="19"/>
-      <c r="N45" s="19"/>
-    </row>
-    <row r="46" ht="15.75" customHeight="1">
-      <c r="A46" s="19"/>
-      <c r="B46" s="18"/>
-      <c r="C46" s="18"/>
-      <c r="D46" t="s" s="20">
-        <v>88</v>
-      </c>
-      <c r="E46" s="18"/>
-      <c r="F46" s="18"/>
-      <c r="G46" s="18"/>
-      <c r="H46" s="18"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="19"/>
-      <c r="M46" s="19"/>
-      <c r="N46" s="19"/>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H18" r:id="rId1" location="" tooltip="" display=""/>
-    <hyperlink ref="H20" r:id="rId2" location="" tooltip="" display=""/>
-    <hyperlink ref="H22" r:id="rId3" location="" tooltip="" display=""/>
-    <hyperlink ref="H24" r:id="rId4" location="" tooltip="" display=""/>
-    <hyperlink ref="H26" r:id="rId5" location="" tooltip="" display=""/>
-    <hyperlink ref="H30" r:id="rId6" location="" tooltip="" display=""/>
-    <hyperlink ref="H32" r:id="rId7" location="" tooltip="" display=""/>
-    <hyperlink ref="H34" r:id="rId8" location="" tooltip="" display=""/>
-    <hyperlink ref="H36" r:id="rId9" location="" tooltip="" display=""/>
+    <hyperlink ref="H13" r:id="rId1" location="" tooltip="" display=""/>
+    <hyperlink ref="H15" r:id="rId2" location="" tooltip="" display=""/>
+    <hyperlink ref="H17" r:id="rId3" location="" tooltip="" display=""/>
+    <hyperlink ref="H19" r:id="rId4" location="" tooltip="" display=""/>
+    <hyperlink ref="H21" r:id="rId5" location="" tooltip="" display=""/>
+    <hyperlink ref="H25" r:id="rId6" location="" tooltip="" display=""/>
+    <hyperlink ref="H27" r:id="rId7" location="" tooltip="" display=""/>
+    <hyperlink ref="H29" r:id="rId8" location="" tooltip="" display=""/>
+    <hyperlink ref="H31" r:id="rId9" location="" tooltip="" display=""/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>

--- a/LEDCON.BOM.xlsx
+++ b/LEDCON.BOM.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="73">
   <si>
     <t>Product Name:</t>
   </si>
@@ -22,6 +22,9 @@
     <t>Tag:</t>
   </si>
   <si>
+    <t>LEDCON.v1.0</t>
+  </si>
+  <si>
     <t>Product Number:</t>
   </si>
   <si>
@@ -62,6 +65,12 @@
   </si>
   <si>
     <t>LEDCON.MECH</t>
+  </si>
+  <si>
+    <t>Housing Components</t>
+  </si>
+  <si>
+    <t>LEDCON.MECH.v1.3</t>
   </si>
   <si>
     <t>Daughterboard PCB Assembly</t>
@@ -296,8 +305,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="0" formatCode="General"/>
+    <numFmt numFmtId="59" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="11">
     <font>
@@ -372,7 +382,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -398,6 +408,17 @@
         <color indexed="10"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -481,7 +502,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -497,43 +518,46 @@
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="59" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="1" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -542,43 +566,49 @@
     <xf numFmtId="1" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="5" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="6" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="6" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="5" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="5" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="7" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="4" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="4" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="right" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="8" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="8" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="1" fontId="9" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="9" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="10" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="1" fontId="10" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1840,8 +1870,8 @@
     <col min="2" max="2" width="23.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="50.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="6.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.6016" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.375" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="36.875" style="1" customWidth="1"/>
     <col min="9" max="9" width="99.125" style="1" customWidth="1"/>
@@ -1865,829 +1895,837 @@
       <c r="E1" t="s" s="3">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
+      <c r="F1" t="s" s="5">
+        <v>3</v>
+      </c>
       <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" ht="18" customHeight="1">
-      <c r="A2" s="7"/>
-      <c r="B2" t="s" s="8">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s" s="8">
+      <c r="A2" s="8"/>
+      <c r="B2" t="s" s="9">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" t="s" s="8">
+      <c r="C2" t="s" s="9">
         <v>5</v>
       </c>
-      <c r="F2" s="9">
-        <v>42010</v>
-      </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" t="s" s="9">
+        <v>6</v>
+      </c>
+      <c r="F2" s="11">
+        <v>42129</v>
+      </c>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" ht="15.75" customHeight="1">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" t="s" s="13">
-        <v>6</v>
-      </c>
-      <c r="F3" s="12">
-        <v>42100</v>
-      </c>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" t="s" s="15">
+        <v>7</v>
+      </c>
+      <c r="F3" s="16">
+        <v>42129</v>
+      </c>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" ht="18" customHeight="1">
-      <c r="A4" t="s" s="14">
-        <v>7</v>
-      </c>
-      <c r="B4" t="s" s="8">
+      <c r="A4" t="s" s="17">
         <v>8</v>
       </c>
-      <c r="C4" t="s" s="8">
+      <c r="B4" t="s" s="9">
         <v>9</v>
       </c>
-      <c r="D4" t="s" s="8">
+      <c r="C4" t="s" s="9">
         <v>10</v>
       </c>
-      <c r="E4" t="s" s="8">
+      <c r="D4" t="s" s="9">
         <v>11</v>
       </c>
-      <c r="F4" t="s" s="8">
+      <c r="E4" t="s" s="9">
         <v>12</v>
       </c>
-      <c r="G4" t="s" s="8">
+      <c r="F4" t="s" s="9">
         <v>13</v>
       </c>
-      <c r="H4" t="s" s="15">
+      <c r="G4" t="s" s="9">
         <v>14</v>
       </c>
-      <c r="I4" t="s" s="15">
+      <c r="H4" t="s" s="18">
         <v>15</v>
       </c>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
+      <c r="I4" t="s" s="18">
+        <v>16</v>
+      </c>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" ht="15.75" customHeight="1">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" ht="15.75" customHeight="1">
-      <c r="A6" s="18"/>
-      <c r="B6" s="18"/>
-      <c r="C6" s="18"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="19"/>
-      <c r="N6" s="19"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" ht="15.75" customHeight="1">
-      <c r="A7" s="18">
+      <c r="A7" s="21">
         <v>1</v>
       </c>
-      <c r="B7" t="s" s="20">
-        <v>16</v>
-      </c>
-      <c r="C7" s="21"/>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="21"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="19"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="19"/>
-      <c r="M7" s="19"/>
-      <c r="N7" s="19"/>
+      <c r="B7" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="C7" t="s" s="23">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s" s="23">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s" s="23">
+        <v>19</v>
+      </c>
+      <c r="F7" s="21"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" ht="19" customHeight="1">
-      <c r="A8" s="18"/>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="18"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="19"/>
-      <c r="N8" s="19"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" ht="20" customHeight="1">
-      <c r="A9" s="18">
+      <c r="A9" s="21">
         <v>1</v>
       </c>
-      <c r="B9" t="s" s="20">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s" s="20">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s" s="22">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s" s="20">
+      <c r="B9" t="s" s="23">
         <v>20</v>
       </c>
-      <c r="F9" s="23"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
+      <c r="C9" t="s" s="23">
+        <v>21</v>
+      </c>
+      <c r="D9" t="s" s="25">
+        <v>22</v>
+      </c>
+      <c r="E9" t="s" s="23">
+        <v>23</v>
+      </c>
+      <c r="F9" s="26"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="27"/>
+      <c r="J9" s="27"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="28"/>
+      <c r="N9" s="28"/>
     </row>
     <row r="10" ht="20" customHeight="1">
-      <c r="A10" s="23"/>
-      <c r="B10" s="26"/>
-      <c r="C10" s="26"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
-      <c r="M10" s="25"/>
-      <c r="N10" s="25"/>
+      <c r="A10" s="26"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="27"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="28"/>
+      <c r="N10" s="28"/>
     </row>
     <row r="11" ht="30" customHeight="1">
-      <c r="A11" s="23">
+      <c r="A11" s="26">
         <v>1</v>
       </c>
-      <c r="B11" t="s" s="22">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s" s="22">
-        <v>22</v>
-      </c>
-      <c r="D11" t="s" s="22">
-        <v>23</v>
-      </c>
-      <c r="E11" t="s" s="20">
+      <c r="B11" t="s" s="25">
         <v>24</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
-      <c r="M11" s="25"/>
-      <c r="N11" s="25"/>
+      <c r="C11" t="s" s="25">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s" s="25">
+        <v>26</v>
+      </c>
+      <c r="E11" t="s" s="23">
+        <v>27</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="27"/>
+      <c r="J11" s="27"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="28"/>
+      <c r="N11" s="28"/>
     </row>
     <row r="12" ht="20" customHeight="1">
-      <c r="A12" s="23"/>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="25"/>
-      <c r="L12" s="25"/>
-      <c r="M12" s="25"/>
-      <c r="N12" s="25"/>
+      <c r="A12" s="26"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="28"/>
+      <c r="N12" s="28"/>
     </row>
     <row r="13" ht="30" customHeight="1">
-      <c r="A13" s="18">
+      <c r="A13" s="21">
         <v>1</v>
       </c>
-      <c r="B13" t="s" s="20">
-        <v>25</v>
-      </c>
-      <c r="C13" t="s" s="20">
-        <v>26</v>
-      </c>
-      <c r="D13" t="s" s="20">
-        <v>27</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-      <c r="G13" t="s" s="20">
+      <c r="B13" t="s" s="23">
         <v>28</v>
       </c>
-      <c r="H13" t="s" s="27">
+      <c r="C13" t="s" s="23">
         <v>29</v>
       </c>
-      <c r="I13" s="19"/>
-      <c r="J13" s="19"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="19"/>
-      <c r="N13" s="19"/>
+      <c r="D13" t="s" s="23">
+        <v>30</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" t="s" s="23">
+        <v>31</v>
+      </c>
+      <c r="H13" t="s" s="30">
+        <v>32</v>
+      </c>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" ht="30" customHeight="1">
-      <c r="A14" s="18"/>
-      <c r="B14" s="18"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="19"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="19"/>
-      <c r="N14" s="19"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" ht="30" customHeight="1">
-      <c r="A15" s="18">
+      <c r="A15" s="21">
         <v>1</v>
       </c>
-      <c r="B15" t="s" s="20">
-        <v>30</v>
-      </c>
-      <c r="C15" t="s" s="20">
-        <v>31</v>
-      </c>
-      <c r="D15" t="s" s="20">
-        <v>32</v>
-      </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
-      <c r="G15" t="s" s="20">
+      <c r="B15" t="s" s="23">
         <v>33</v>
       </c>
-      <c r="H15" t="s" s="27">
+      <c r="C15" t="s" s="23">
         <v>34</v>
       </c>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="19"/>
-      <c r="N15" s="19"/>
+      <c r="D15" t="s" s="23">
+        <v>35</v>
+      </c>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" t="s" s="23">
+        <v>36</v>
+      </c>
+      <c r="H15" t="s" s="30">
+        <v>37</v>
+      </c>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" ht="30" customHeight="1">
-      <c r="A16" s="18"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="18"/>
-      <c r="F16" s="18"/>
-      <c r="G16" s="18"/>
-      <c r="H16" s="18"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" ht="30" customHeight="1">
-      <c r="A17" s="18">
+      <c r="A17" s="21">
         <v>2</v>
       </c>
-      <c r="B17" t="s" s="28">
-        <v>35</v>
-      </c>
-      <c r="C17" t="s" s="28">
-        <v>36</v>
-      </c>
-      <c r="D17" t="s" s="20">
-        <v>37</v>
-      </c>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" t="s" s="20">
+      <c r="B17" t="s" s="31">
         <v>38</v>
       </c>
-      <c r="H17" t="s" s="27">
+      <c r="C17" t="s" s="31">
         <v>39</v>
       </c>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="19"/>
-      <c r="N17" s="19"/>
+      <c r="D17" t="s" s="23">
+        <v>40</v>
+      </c>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="H17" t="s" s="30">
+        <v>42</v>
+      </c>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" ht="30" customHeight="1">
-      <c r="A18" s="18"/>
-      <c r="B18" s="19"/>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18"/>
-      <c r="G18" s="18"/>
-      <c r="H18" s="18"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="19"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="19"/>
-      <c r="N18" s="19"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" ht="30" customHeight="1">
-      <c r="A19" s="18">
+      <c r="A19" s="21">
         <v>4</v>
       </c>
-      <c r="B19" t="s" s="28">
-        <v>40</v>
-      </c>
-      <c r="C19" t="s" s="20">
+      <c r="B19" t="s" s="31">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s" s="23">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s" s="23">
+        <v>45</v>
+      </c>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" t="s" s="31">
         <v>41</v>
       </c>
-      <c r="D19" t="s" s="20">
-        <v>42</v>
-      </c>
-      <c r="E19" s="18"/>
-      <c r="F19" s="18"/>
-      <c r="G19" t="s" s="28">
-        <v>38</v>
-      </c>
-      <c r="H19" t="s" s="27">
-        <v>43</v>
-      </c>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="19"/>
-      <c r="N19" s="19"/>
+      <c r="H19" t="s" s="30">
+        <v>46</v>
+      </c>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" ht="27" customHeight="1">
-      <c r="A20" s="18"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="18"/>
-      <c r="G20" s="18"/>
-      <c r="H20" s="18"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="19"/>
-      <c r="M20" s="19"/>
-      <c r="N20" s="19"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" ht="27" customHeight="1">
-      <c r="A21" s="29">
+      <c r="A21" s="32">
         <v>2</v>
       </c>
-      <c r="B21" t="s" s="28">
-        <v>44</v>
-      </c>
-      <c r="C21" t="s" s="28">
-        <v>45</v>
-      </c>
-      <c r="D21" t="s" s="28">
-        <v>46</v>
-      </c>
-      <c r="E21" s="19"/>
-      <c r="F21" s="19"/>
-      <c r="G21" t="s" s="28">
-        <v>38</v>
-      </c>
-      <c r="H21" t="s" s="30">
+      <c r="B21" t="s" s="31">
         <v>47</v>
       </c>
-      <c r="I21" s="19"/>
-      <c r="J21" s="19"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="19"/>
-      <c r="M21" s="19"/>
-      <c r="N21" s="19"/>
+      <c r="C21" t="s" s="31">
+        <v>48</v>
+      </c>
+      <c r="D21" t="s" s="31">
+        <v>49</v>
+      </c>
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" t="s" s="31">
+        <v>41</v>
+      </c>
+      <c r="H21" t="s" s="33">
+        <v>50</v>
+      </c>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" ht="27" customHeight="1">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-      <c r="C22" s="19"/>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
-      <c r="F22" s="19"/>
-      <c r="G22" s="19"/>
-      <c r="H22" s="19"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="19"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="19"/>
-      <c r="M22" s="19"/>
-      <c r="N22" s="19"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" ht="27" customHeight="1">
-      <c r="A23" s="19">
+      <c r="A23" s="22">
         <v>2</v>
       </c>
-      <c r="B23" t="s" s="28">
-        <v>48</v>
-      </c>
-      <c r="C23" t="s" s="28">
-        <v>49</v>
-      </c>
-      <c r="D23" t="s" s="28">
-        <v>50</v>
-      </c>
-      <c r="E23" s="19"/>
-      <c r="F23" s="19"/>
-      <c r="G23" t="s" s="28">
+      <c r="B23" t="s" s="31">
         <v>51</v>
       </c>
-      <c r="H23" s="19"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="19"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="19"/>
-      <c r="M23" s="19"/>
-      <c r="N23" s="19"/>
+      <c r="C23" t="s" s="31">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s" s="31">
+        <v>53</v>
+      </c>
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" t="s" s="31">
+        <v>54</v>
+      </c>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" ht="27" customHeight="1">
-      <c r="A24" s="19"/>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
-      <c r="F24" s="19"/>
-      <c r="G24" s="19"/>
-      <c r="H24" s="19"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="19"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="19"/>
-      <c r="M24" s="19"/>
-      <c r="N24" s="19"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" ht="27" customHeight="1">
-      <c r="A25" s="29">
+      <c r="A25" s="32">
         <v>2</v>
       </c>
-      <c r="B25" t="s" s="28">
-        <v>52</v>
-      </c>
-      <c r="C25" t="s" s="28">
-        <v>53</v>
-      </c>
-      <c r="D25" t="s" s="28">
-        <v>54</v>
-      </c>
-      <c r="E25" s="19"/>
-      <c r="F25" s="19"/>
-      <c r="G25" t="s" s="28">
-        <v>38</v>
-      </c>
-      <c r="H25" t="s" s="30">
+      <c r="B25" t="s" s="31">
         <v>55</v>
       </c>
-      <c r="I25" s="19"/>
-      <c r="J25" s="19"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="19"/>
-      <c r="M25" s="19"/>
-      <c r="N25" s="19"/>
+      <c r="C25" t="s" s="31">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s" s="31">
+        <v>57</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" t="s" s="31">
+        <v>41</v>
+      </c>
+      <c r="H25" t="s" s="33">
+        <v>58</v>
+      </c>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" ht="27" customHeight="1">
-      <c r="A26" s="18"/>
-      <c r="B26" s="19"/>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-      <c r="G26" s="18"/>
-      <c r="H26" s="18"/>
-      <c r="I26" s="19"/>
-      <c r="J26" s="19"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="19"/>
-      <c r="M26" s="19"/>
-      <c r="N26" s="19"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" ht="41.4" customHeight="1">
-      <c r="A27" s="18">
+      <c r="A27" s="21">
         <v>2</v>
       </c>
-      <c r="B27" t="s" s="20">
-        <v>56</v>
-      </c>
-      <c r="C27" t="s" s="28">
-        <v>57</v>
-      </c>
-      <c r="D27" t="s" s="20">
-        <v>58</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
-      <c r="G27" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="H27" t="s" s="27">
+      <c r="B27" t="s" s="23">
         <v>59</v>
       </c>
-      <c r="I27" s="19"/>
-      <c r="J27" s="19"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
+      <c r="C27" t="s" s="31">
+        <v>60</v>
+      </c>
+      <c r="D27" t="s" s="23">
+        <v>61</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="H27" t="s" s="30">
+        <v>62</v>
+      </c>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" ht="27" customHeight="1">
-      <c r="A28" s="18"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="19"/>
-      <c r="J28" s="19"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="19"/>
-      <c r="M28" s="19"/>
-      <c r="N28" s="19"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" ht="48.6" customHeight="1">
-      <c r="A29" s="18">
+      <c r="A29" s="21">
         <v>2</v>
       </c>
-      <c r="B29" t="s" s="20">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s" s="28">
-        <v>61</v>
-      </c>
-      <c r="D29" t="s" s="28">
-        <v>62</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" t="s" s="20">
-        <v>38</v>
-      </c>
-      <c r="H29" t="s" s="27">
+      <c r="B29" t="s" s="23">
         <v>63</v>
       </c>
-      <c r="I29" s="19"/>
-      <c r="J29" s="19"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="19"/>
-      <c r="M29" s="19"/>
-      <c r="N29" s="19"/>
+      <c r="C29" t="s" s="31">
+        <v>64</v>
+      </c>
+      <c r="D29" t="s" s="31">
+        <v>65</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" t="s" s="23">
+        <v>41</v>
+      </c>
+      <c r="H29" t="s" s="30">
+        <v>66</v>
+      </c>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" ht="27" customHeight="1">
-      <c r="A30" s="18"/>
-      <c r="B30" s="19"/>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
-      <c r="G30" s="18"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="19"/>
-      <c r="J30" s="19"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" ht="27" customHeight="1">
-      <c r="A31" s="18">
+      <c r="A31" s="21">
         <v>1</v>
       </c>
-      <c r="B31" t="s" s="28">
-        <v>64</v>
-      </c>
-      <c r="C31" t="s" s="28">
-        <v>65</v>
-      </c>
-      <c r="D31" t="s" s="20">
-        <v>66</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
-      <c r="G31" t="s" s="20">
+      <c r="B31" t="s" s="31">
         <v>67</v>
       </c>
-      <c r="H31" t="s" s="20">
+      <c r="C31" t="s" s="31">
         <v>68</v>
       </c>
-      <c r="I31" s="19"/>
-      <c r="J31" s="19"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="19"/>
-      <c r="M31" s="19"/>
-      <c r="N31" s="19"/>
+      <c r="D31" t="s" s="23">
+        <v>69</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" t="s" s="23">
+        <v>70</v>
+      </c>
+      <c r="H31" t="s" s="23">
+        <v>71</v>
+      </c>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" ht="27" customHeight="1">
-      <c r="A32" s="18"/>
-      <c r="B32" s="18"/>
-      <c r="C32" s="18"/>
-      <c r="D32" s="18"/>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
-      <c r="G32" s="18"/>
-      <c r="H32" s="18"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="19"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="19"/>
-      <c r="M32" s="19"/>
-      <c r="N32" s="19"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" ht="27" customHeight="1">
-      <c r="A33" s="18"/>
-      <c r="B33" s="18"/>
-      <c r="C33" s="18"/>
-      <c r="D33" s="18"/>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
-      <c r="G33" s="18"/>
-      <c r="H33" s="18"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="19"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" ht="30" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="18"/>
-      <c r="F34" s="18"/>
-      <c r="G34" s="18"/>
-      <c r="H34" s="18"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="19"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="19"/>
-      <c r="M34" s="19"/>
-      <c r="N34" s="19"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" ht="30" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18"/>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
-      <c r="G35" s="18"/>
-      <c r="H35" s="18"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="19"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="19"/>
-      <c r="M35" s="19"/>
-      <c r="N35" s="19"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" ht="45" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="31"/>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
-      <c r="G36" s="18"/>
-      <c r="H36" s="18"/>
-      <c r="I36" s="32"/>
-      <c r="J36" s="19"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="35"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" ht="45" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="31"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
-      <c r="G37" s="18"/>
-      <c r="H37" s="18"/>
-      <c r="I37" s="32"/>
-      <c r="J37" s="19"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="19"/>
-      <c r="M37" s="19"/>
-      <c r="N37" s="19"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="35"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" ht="45" customHeight="1">
-      <c r="A38" s="18"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="31"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="18"/>
-      <c r="G38" s="18"/>
-      <c r="H38" s="18"/>
-      <c r="I38" s="32"/>
-      <c r="J38" s="19"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="35"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" ht="30" customHeight="1">
-      <c r="A39" s="18"/>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="31"/>
-      <c r="E39" s="18"/>
-      <c r="F39" s="18"/>
-      <c r="G39" s="18"/>
-      <c r="H39" s="18"/>
-      <c r="I39" s="32"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="35"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" ht="15.75" customHeight="1">
-      <c r="A40" s="19"/>
-      <c r="B40" s="18"/>
-      <c r="C40" s="18"/>
-      <c r="D40" s="18"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="18"/>
-      <c r="G40" s="18"/>
-      <c r="H40" s="18"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" ht="15.75" customHeight="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="18"/>
-      <c r="D41" t="s" s="20">
-        <v>69</v>
-      </c>
-      <c r="E41" s="18"/>
-      <c r="F41" s="18"/>
-      <c r="G41" s="18"/>
-      <c r="H41" s="18"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" t="s" s="23">
+        <v>72</v>
+      </c>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/LEDCON.BOM.xlsx
+++ b/LEDCON.BOM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="986" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -236,7 +236,7 @@
     <numFmt numFmtId="165" formatCode="0"/>
     <numFmt numFmtId="166" formatCode="MM/DD/YY"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <name val="Verdana"/>
@@ -259,14 +259,8 @@
       <family val="0"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <name val="Arial"/>
+      <sz val="10"/>
+      <name val="Verdana"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -278,14 +272,14 @@
     </font>
     <font>
       <u val="single"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -293,7 +287,7 @@
     </font>
     <font>
       <u val="single"/>
-      <sz val="12"/>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -403,144 +397,124 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="30">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -563,11 +537,11 @@
   </sheetPr>
   <dimension ref="A1:N41"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G5" activeCellId="0" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="8.62222222222222"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="23.3740740740741"/>
@@ -580,844 +554,844 @@
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="99.1222222222222"/>
     <col collapsed="false" hidden="false" max="14" min="10" style="1" width="10.1259259259259"/>
     <col collapsed="false" hidden="false" max="256" min="15" style="1" width="6.62592592592593"/>
-    <col collapsed="false" hidden="false" max="1025" min="257" style="0" width="6.62592592592593"/>
+    <col collapsed="false" hidden="false" max="1025" min="257" style="2" width="6.62592592592593"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4"/>
-      <c r="E1" s="3" t="s">
+      <c r="D1" s="5"/>
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="5"/>
-      <c r="I1" s="5"/>
-      <c r="J1" s="5"/>
-      <c r="K1" s="5"/>
-      <c r="L1" s="5"/>
-      <c r="M1" s="5"/>
-      <c r="N1" s="6"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
+      <c r="N1" s="7"/>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="7"/>
-      <c r="B2" s="8" t="s">
+      <c r="A2" s="8"/>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="9"/>
-      <c r="E2" s="8" t="s">
+      <c r="D2" s="10"/>
+      <c r="E2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="10" t="n">
+      <c r="F2" s="11" t="n">
         <v>42010</v>
       </c>
-      <c r="G2" s="9"/>
-      <c r="H2" s="11"/>
-      <c r="I2" s="11"/>
-      <c r="J2" s="11"/>
-      <c r="K2" s="11"/>
-      <c r="L2" s="11"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="12"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="13"/>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="16" t="n">
         <v>42100</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="13"/>
-      <c r="N3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
     </row>
     <row r="4" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="N4" s="13"/>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18"/>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="18"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="18"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="19"/>
-      <c r="J5" s="19"/>
-      <c r="K5" s="19"/>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
+      <c r="A5" s="19"/>
+      <c r="B5" s="19"/>
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="20"/>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="20"/>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="21"/>
-      <c r="N6" s="21"/>
+      <c r="A6" s="21"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="22"/>
+      <c r="L6" s="22"/>
+      <c r="M6" s="22"/>
+      <c r="N6" s="22"/>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="20" t="n">
+      <c r="A7" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B7" s="22" t="s">
+      <c r="B7" s="23" t="s">
         <v>16</v>
       </c>
       <c r="C7" s="23"/>
       <c r="D7" s="23"/>
       <c r="E7" s="23"/>
-      <c r="F7" s="20"/>
+      <c r="F7" s="21"/>
       <c r="G7" s="23"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="21"/>
-      <c r="J7" s="21"/>
-      <c r="K7" s="21"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="21"/>
-      <c r="N7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="22"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="22"/>
+      <c r="L7" s="22"/>
+      <c r="M7" s="22"/>
+      <c r="N7" s="22"/>
     </row>
     <row r="8" customFormat="false" ht="19" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20"/>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
+      <c r="A8" s="21"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B9" s="22" t="s">
+      <c r="B9" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="22" t="s">
+      <c r="E9" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="27"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="27"/>
-      <c r="N9" s="27"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="22"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="22"/>
+      <c r="L9" s="22"/>
+      <c r="M9" s="22"/>
+      <c r="N9" s="22"/>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="25"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
+      <c r="A10" s="21"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
       <c r="E10" s="23"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="25"/>
-      <c r="I10" s="26"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="27"/>
-      <c r="N10" s="27"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="22"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="22"/>
+      <c r="L10" s="22"/>
+      <c r="M10" s="22"/>
+      <c r="N10" s="22"/>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="25" t="n">
+      <c r="A11" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="25"/>
-      <c r="I11" s="26"/>
-      <c r="J11" s="26"/>
-      <c r="K11" s="27"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="27"/>
-      <c r="N11" s="27"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
     </row>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="25"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
+      <c r="A12" s="21"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
       <c r="E12" s="23"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="25"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="22"/>
+      <c r="N12" s="22"/>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="20" t="n">
+      <c r="A13" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B13" s="22" t="s">
+      <c r="B13" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="22" t="s">
+      <c r="C13" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="D13" s="22" t="s">
+      <c r="D13" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="22" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="H13" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="I13" s="21"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="21"/>
-      <c r="N13" s="21"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="20"/>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="21"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="21"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="21"/>
-      <c r="N14" s="21"/>
+      <c r="A14" s="21"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="n">
+      <c r="A15" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="22" t="s">
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="H15" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="21"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="21"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="21"/>
-      <c r="N15" s="21"/>
+      <c r="I15" s="22"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="22"/>
+      <c r="L15" s="22"/>
+      <c r="M15" s="22"/>
+      <c r="N15" s="22"/>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20"/>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
+      <c r="A16" s="21"/>
+      <c r="B16" s="22"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="22"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="22"/>
+      <c r="L16" s="22"/>
+      <c r="M16" s="22"/>
+      <c r="N16" s="22"/>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
+      <c r="A17" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="25" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="25" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="22" t="s">
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="H17" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="I17" s="21"/>
-      <c r="J17" s="21"/>
-      <c r="K17" s="21"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="21"/>
-      <c r="N17" s="21"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="22"/>
+      <c r="L17" s="22"/>
+      <c r="M17" s="22"/>
+      <c r="N17" s="22"/>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20"/>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="21"/>
-      <c r="J18" s="21"/>
-      <c r="K18" s="21"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="21"/>
-      <c r="N18" s="21"/>
+      <c r="A18" s="21"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="22"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="22"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="22"/>
+      <c r="L18" s="22"/>
+      <c r="M18" s="22"/>
+      <c r="N18" s="22"/>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="20" t="n">
+      <c r="A19" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="C19" s="22" t="s">
+      <c r="C19" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="30" t="s">
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H19" s="29" t="s">
+      <c r="H19" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
-      <c r="K19" s="21"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="21"/>
-      <c r="N19" s="21"/>
+      <c r="I19" s="22"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="22"/>
+      <c r="L19" s="22"/>
+      <c r="M19" s="22"/>
+      <c r="N19" s="22"/>
     </row>
     <row r="20" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="20"/>
-      <c r="B20" s="21"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="21"/>
-      <c r="J20" s="21"/>
-      <c r="K20" s="21"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="21"/>
-      <c r="N20" s="21"/>
+      <c r="A20" s="21"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="22"/>
+      <c r="D20" s="21"/>
+      <c r="E20" s="21"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="21"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="22"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="22"/>
+      <c r="L20" s="22"/>
+      <c r="M20" s="22"/>
+      <c r="N20" s="22"/>
     </row>
     <row r="21" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="31" t="n">
+      <c r="A21" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="30" t="s">
+      <c r="D21" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="E21" s="21"/>
-      <c r="F21" s="21"/>
-      <c r="G21" s="30" t="s">
+      <c r="E21" s="22"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H21" s="32" t="s">
+      <c r="H21" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="I21" s="21"/>
-      <c r="J21" s="21"/>
-      <c r="K21" s="21"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="21"/>
-      <c r="N21" s="21"/>
+      <c r="I21" s="22"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="22"/>
+      <c r="L21" s="22"/>
+      <c r="M21" s="22"/>
+      <c r="N21" s="22"/>
     </row>
     <row r="22" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="21"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="21"/>
-      <c r="H22" s="21"/>
-      <c r="I22" s="21"/>
-      <c r="J22" s="21"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="22"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="22"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="22"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
     </row>
     <row r="23" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21" t="n">
+      <c r="A23" s="22" t="n">
         <v>2</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C23" s="30" t="s">
+      <c r="C23" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="30" t="s">
+      <c r="D23" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="30" t="s">
+      <c r="E23" s="22"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="25" t="s">
         <v>51</v>
       </c>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="21"/>
-      <c r="N23" s="21"/>
+      <c r="H23" s="22"/>
+      <c r="I23" s="22"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="22"/>
     </row>
     <row r="24" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="21"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="21"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="21"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="21"/>
-      <c r="N24" s="21"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="22"/>
+      <c r="H24" s="22"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="22"/>
     </row>
     <row r="25" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="31" t="n">
+      <c r="A25" s="26" t="n">
         <v>2</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C25" s="25" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="21"/>
-      <c r="G25" s="30" t="s">
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="25" t="s">
         <v>38</v>
       </c>
-      <c r="H25" s="32" t="s">
+      <c r="H25" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="I25" s="21"/>
-      <c r="J25" s="21"/>
-      <c r="K25" s="21"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="21"/>
-      <c r="N25" s="21"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
     </row>
     <row r="26" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="20"/>
-      <c r="B26" s="21"/>
-      <c r="C26" s="21"/>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-      <c r="N26" s="21"/>
+      <c r="A26" s="21"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="21"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="21"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
     </row>
     <row r="27" customFormat="false" ht="41.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="20" t="n">
+      <c r="A27" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B27" s="22" t="s">
+      <c r="B27" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="25" t="s">
         <v>57</v>
       </c>
-      <c r="D27" s="22" t="s">
+      <c r="D27" s="23" t="s">
         <v>58</v>
       </c>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="22" t="s">
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H27" s="29" t="s">
+      <c r="H27" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="I27" s="21"/>
-      <c r="J27" s="21"/>
-      <c r="K27" s="21"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="21"/>
-      <c r="N27" s="21"/>
+      <c r="I27" s="22"/>
+      <c r="J27" s="22"/>
+      <c r="K27" s="22"/>
+      <c r="L27" s="22"/>
+      <c r="M27" s="22"/>
+      <c r="N27" s="22"/>
     </row>
     <row r="28" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="20"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="21"/>
-      <c r="D28" s="20"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="20"/>
-      <c r="G28" s="20"/>
-      <c r="H28" s="20"/>
-      <c r="I28" s="21"/>
-      <c r="J28" s="21"/>
-      <c r="K28" s="21"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="21"/>
-      <c r="N28" s="21"/>
+      <c r="A28" s="21"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="22"/>
+      <c r="D28" s="21"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="22"/>
+      <c r="J28" s="22"/>
+      <c r="K28" s="22"/>
+      <c r="L28" s="22"/>
+      <c r="M28" s="22"/>
+      <c r="N28" s="22"/>
     </row>
     <row r="29" customFormat="false" ht="48.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="20" t="n">
+      <c r="A29" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B29" s="22" t="s">
+      <c r="B29" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="25" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="20"/>
-      <c r="F29" s="20"/>
-      <c r="G29" s="22" t="s">
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="H29" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="21"/>
-      <c r="N29" s="21"/>
+      <c r="I29" s="22"/>
+      <c r="J29" s="22"/>
+      <c r="K29" s="22"/>
+      <c r="L29" s="22"/>
+      <c r="M29" s="22"/>
+      <c r="N29" s="22"/>
     </row>
     <row r="30" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="20"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="21"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-      <c r="H30" s="20"/>
-      <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
-      <c r="K30" s="21"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="21"/>
-      <c r="N30" s="21"/>
+      <c r="A30" s="21"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="22"/>
+      <c r="D30" s="21"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="21"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="22"/>
+      <c r="J30" s="22"/>
+      <c r="K30" s="22"/>
+      <c r="L30" s="22"/>
+      <c r="M30" s="22"/>
+      <c r="N30" s="22"/>
     </row>
     <row r="31" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="n">
+      <c r="A31" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B31" s="30" t="s">
+      <c r="B31" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="22" t="s">
+      <c r="D31" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="20"/>
-      <c r="F31" s="20"/>
-      <c r="G31" s="22" t="s">
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="H31" s="33" t="s">
+      <c r="H31" s="28" t="s">
         <v>68</v>
       </c>
-      <c r="I31" s="21"/>
-      <c r="J31" s="21"/>
-      <c r="K31" s="21"/>
-      <c r="L31" s="21"/>
-      <c r="M31" s="21"/>
-      <c r="N31" s="21"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
     </row>
     <row r="32" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="20"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="21"/>
-      <c r="J32" s="21"/>
-      <c r="K32" s="21"/>
-      <c r="L32" s="21"/>
-      <c r="M32" s="21"/>
-      <c r="N32" s="21"/>
+      <c r="A32" s="21"/>
+      <c r="B32" s="21"/>
+      <c r="C32" s="21"/>
+      <c r="D32" s="21"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="21"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
+      <c r="K32" s="22"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
     </row>
     <row r="33" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="20"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="20"/>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
-      <c r="F33" s="20"/>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
-      <c r="I33" s="21"/>
-      <c r="J33" s="21"/>
-      <c r="K33" s="21"/>
-      <c r="L33" s="21"/>
-      <c r="M33" s="21"/>
-      <c r="N33" s="21"/>
+      <c r="A33" s="21"/>
+      <c r="B33" s="21"/>
+      <c r="C33" s="21"/>
+      <c r="D33" s="21"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="21"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
+      <c r="K33" s="22"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
     </row>
     <row r="34" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="20"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="21"/>
-      <c r="J34" s="21"/>
-      <c r="K34" s="21"/>
-      <c r="L34" s="21"/>
-      <c r="M34" s="21"/>
-      <c r="N34" s="21"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="21"/>
+      <c r="H34" s="21"/>
+      <c r="I34" s="22"/>
+      <c r="J34" s="22"/>
+      <c r="K34" s="22"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
     </row>
     <row r="35" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="20"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
-      <c r="K35" s="21"/>
-      <c r="L35" s="21"/>
-      <c r="M35" s="21"/>
-      <c r="N35" s="21"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="21"/>
+      <c r="I35" s="22"/>
+      <c r="J35" s="22"/>
+      <c r="K35" s="22"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
     </row>
     <row r="36" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="20"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="21"/>
-      <c r="K36" s="21"/>
-      <c r="L36" s="21"/>
-      <c r="M36" s="21"/>
-      <c r="N36" s="21"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="21"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="22"/>
+      <c r="K36" s="22"/>
+      <c r="L36" s="22"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="22"/>
     </row>
     <row r="37" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="20"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="34"/>
-      <c r="J37" s="21"/>
-      <c r="K37" s="21"/>
-      <c r="L37" s="21"/>
-      <c r="M37" s="21"/>
-      <c r="N37" s="21"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21"/>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="21"/>
+      <c r="H37" s="21"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="22"/>
+      <c r="N37" s="22"/>
     </row>
     <row r="38" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="20"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="34"/>
-      <c r="J38" s="21"/>
-      <c r="K38" s="21"/>
-      <c r="L38" s="21"/>
-      <c r="M38" s="21"/>
-      <c r="N38" s="21"/>
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="21"/>
+      <c r="E38" s="21"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="21"/>
+      <c r="H38" s="21"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="22"/>
+      <c r="L38" s="22"/>
+      <c r="M38" s="22"/>
+      <c r="N38" s="22"/>
     </row>
     <row r="39" customFormat="false" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
-      <c r="D39" s="20"/>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="34"/>
-      <c r="J39" s="21"/>
-      <c r="K39" s="21"/>
-      <c r="L39" s="21"/>
-      <c r="M39" s="21"/>
-      <c r="N39" s="21"/>
+      <c r="A39" s="21"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="21"/>
+      <c r="D39" s="21"/>
+      <c r="E39" s="21"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="21"/>
+      <c r="H39" s="21"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="22"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="20"/>
-      <c r="D40" s="20"/>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="21"/>
-      <c r="L40" s="21"/>
-      <c r="M40" s="21"/>
-      <c r="N40" s="21"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="21"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="21"/>
+      <c r="E40" s="21"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="21"/>
+      <c r="H40" s="21"/>
+      <c r="I40" s="21"/>
+      <c r="J40" s="21"/>
+      <c r="K40" s="22"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20"/>
-      <c r="D41" s="22" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="21"/>
+      <c r="C41" s="21"/>
+      <c r="D41" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="21"/>
-      <c r="L41" s="21"/>
-      <c r="M41" s="21"/>
-      <c r="N41" s="21"/>
+      <c r="E41" s="21"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="21"/>
+      <c r="H41" s="21"/>
+      <c r="I41" s="21"/>
+      <c r="J41" s="21"/>
+      <c r="K41" s="22"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
     </row>
   </sheetData>
   <hyperlinks>
